--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1113219.347936846</v>
+        <v>1150683.434712211</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.946211477</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7392862.948418787</v>
+        <v>7908594.878043025</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>286.917885868163</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>113.2449434263234</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>73.86459939806875</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -865,7 +867,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -874,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>219.4421780540762</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>44.31536894113121</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -905,13 +907,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>253.4384295959348</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1057,13 +1059,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.7636000441194</v>
+        <v>169.9835185437319</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120.5897285701996</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1148,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>28.66548829251649</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1300,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>49.0240289595149</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>127.3780140126814</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>229.9012415805998</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1537,10 +1539,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>20.19784691145151</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>173.7166944642106</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.872939992494</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,16 +1663,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>106.1625082751591</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.2402299974664</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1850,16 +1852,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864462</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1895,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1907,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>162.0057120490093</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>52.95397535776772</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>278.894352718058</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2087,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2096,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2132,13 +2134,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2239,13 +2241,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>102.1026425880269</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2254,10 +2256,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>148.1226376070007</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2476,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>205.7728253711827</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>117.8687461043249</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2722,10 +2724,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>72.97644868175428</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2767,7 +2769,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>172.9911499756941</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>121.9332546069154</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.6347062391289</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>98.15366458399308</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3478,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855901</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3667,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>82.56012880945248</v>
+        <v>26.55815659023954</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3721,7 +3723,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3752,10 +3754,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3791,13 +3793,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>121.2457787770072</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>98.15366458399629</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>60.32403460766942</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060527</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3958,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>244.0883786636591</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4138,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>265.3439815931928</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>64.32066041389412</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1537.731517970705</v>
+        <v>273.1206945954328</v>
       </c>
       <c r="C2" t="n">
-        <v>1247.915471639227</v>
+        <v>250.260368649137</v>
       </c>
       <c r="D2" t="n">
-        <v>1228.663254864631</v>
+        <v>231.0081518745414</v>
       </c>
       <c r="E2" t="n">
-        <v>802.6863150124886</v>
+        <v>209.071616062803</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>187.9878382926073</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>73.59900654884629</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884629</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>517.6410595347467</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>996.5799837771758</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>996.5799837771758</v>
       </c>
       <c r="N2" t="n">
-        <v>1696.494830002562</v>
+        <v>1000.082360869263</v>
       </c>
       <c r="O2" t="n">
-        <v>1696.494830002562</v>
+        <v>1000.082360869263</v>
       </c>
       <c r="P2" t="n">
-        <v>1696.494830002562</v>
+        <v>1479.021285111692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2152.580309506745</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1714.181193660509</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058789</v>
+        <v>1455.826284256921</v>
       </c>
       <c r="V2" t="n">
-        <v>1966.556343058789</v>
+        <v>1098.33686938317</v>
       </c>
       <c r="W2" t="n">
-        <v>1966.556343058789</v>
+        <v>701.9455196835172</v>
       </c>
       <c r="X2" t="n">
-        <v>1554.836344226536</v>
+        <v>290.2255208512644</v>
       </c>
       <c r="Y2" t="n">
-        <v>1553.53947822183</v>
+        <v>288.9286548465588</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000792</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>46.14877825422935</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>602.6104029955975</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>1153.275937980036</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="M3" t="n">
-        <v>1703.941472964474</v>
+        <v>796.7851917762496</v>
       </c>
       <c r="N3" t="n">
-        <v>1703.941472964474</v>
+        <v>1275.724116018679</v>
       </c>
       <c r="O3" t="n">
-        <v>1703.941472964474</v>
+        <v>1754.663040261108</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>720.4238054717484</v>
+        <v>448.4751778910336</v>
       </c>
       <c r="C4" t="n">
-        <v>548.4512423506644</v>
+        <v>448.4751778910336</v>
       </c>
       <c r="D4" t="n">
-        <v>385.1344694774351</v>
+        <v>448.4751778910336</v>
       </c>
       <c r="E4" t="n">
-        <v>385.1344694774351</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="F4" t="n">
-        <v>385.1344694774351</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="G4" t="n">
-        <v>218.8774997716673</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734062</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>38.71266663274167</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>393.4019879271625</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>784.5877828974133</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1162.079293773449</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.507422453212</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375113</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>1717.933103822184</v>
       </c>
       <c r="T4" t="n">
-        <v>1934.53329137545</v>
+        <v>1474.593756048083</v>
       </c>
       <c r="U4" t="n">
-        <v>1654.348842875754</v>
+        <v>1194.409307548388</v>
       </c>
       <c r="V4" t="n">
-        <v>1654.348842875754</v>
+        <v>912.6978401564165</v>
       </c>
       <c r="W4" t="n">
-        <v>1379.496439048267</v>
+        <v>912.6978401564165</v>
       </c>
       <c r="X4" t="n">
-        <v>1136.932542494072</v>
+        <v>670.1339436022216</v>
       </c>
       <c r="Y4" t="n">
-        <v>910.5897741838141</v>
+        <v>448.4751778910336</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1066.753158251661</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.892832305366</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>1024.64061553077</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>1002.704079719032</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4568,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>667.4947029893171</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>1899.61838738015</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>1899.61838738015</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X5" t="n">
-        <v>1891.938792588301</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y5" t="n">
-        <v>1486.601522543192</v>
+        <v>174.692738652656</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4649,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.5008004748155</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>620.5282373537315</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
         <v>454.3200315065851</v>
@@ -4723,52 +4725,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1774.591756481815</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V7" t="n">
-        <v>1500.083069568563</v>
+        <v>1592.697720113037</v>
       </c>
       <c r="W7" t="n">
-        <v>1225.230665741076</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="X7" t="n">
-        <v>982.6667691868811</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="Y7" t="n">
-        <v>982.6667691868811</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>427.7981182481856</v>
+        <v>158.88477840153</v>
       </c>
       <c r="C8" t="n">
-        <v>404.9377923018898</v>
+        <v>136.0244524552342</v>
       </c>
       <c r="D8" t="n">
-        <v>385.6855755272941</v>
+        <v>116.7722356806385</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7490397155557</v>
+        <v>94.83569986890012</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>73.75192209870443</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>73.45326372855712</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4805,16 +4807,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L8" t="n">
         <v>595.1637600336857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
         <v>2224.911252462377</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1763.054543461766</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>1366.663193762113</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X8" t="n">
-        <v>954.9431949298605</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y8" t="n">
-        <v>549.6059248847508</v>
+        <v>174.692738652656</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>1220.501010560616</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>733.5956631384639</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>733.5956631384639</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>570.2788902652346</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>404.0706844180881</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4993,19 +4995,19 @@
         <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1482.686776502612</v>
       </c>
       <c r="W10" t="n">
-        <v>1202.502328002917</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="X10" t="n">
-        <v>959.9384314487219</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="Y10" t="n">
-        <v>733.5956631384639</v>
+        <v>1127.679347573484</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2402.539161715826</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1975.638431729126</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1552.345810914126</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1126.368871061984</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>701.2446892513838</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>296.9056268408324</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>91.88037802867257</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>807.3886860041716</v>
+        <v>923.0523692223782</v>
       </c>
       <c r="L11" t="n">
-        <v>1607.830298401975</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M11" t="n">
-        <v>1607.830298401975</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N11" t="n">
-        <v>1607.830298401975</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O11" t="n">
-        <v>2408.271910799778</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3234.107524839608</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3234.107524839608</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3234.107524839608</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2822.387526007356</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2822.387526007356</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>274.7111415562977</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="L12" t="n">
-        <v>274.7111415562977</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.152753954101</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.152753954101</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.152753954101</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>758.4433321308143</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C13" t="n">
-        <v>586.4707690097302</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D13" t="n">
-        <v>423.153996136501</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E13" t="n">
-        <v>256.9457902893545</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F13" t="n">
-        <v>85.0840160639149</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>2027.921517116229</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U13" t="n">
-        <v>1747.737068616533</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V13" t="n">
-        <v>1466.025601224562</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.173197397075</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X13" t="n">
-        <v>948.6093008428799</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.6093008428799</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1071.393351443751</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>644.4926214570512</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>644.4926214570512</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>469.0212129073435</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>469.0212129073435</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679216</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679216</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>865.1237628945952</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>1665.565375292398</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N14" t="n">
-        <v>2433.665912441805</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O14" t="n">
-        <v>3234.107524839608</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3234.107524839608</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839608</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757382</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353794</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2292.970335480044</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>1896.578985780391</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>1896.578985780391</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1491.241715735281</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679216</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>608.7826918167195</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>608.7826918167195</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M15" t="n">
-        <v>608.7826918167195</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N15" t="n">
-        <v>1409.224304214523</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O15" t="n">
-        <v>1409.224304214523</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P15" t="n">
-        <v>1409.224304214523</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1482.98804440658</v>
+        <v>775.7107933313494</v>
       </c>
       <c r="C16" t="n">
-        <v>1482.98804440658</v>
+        <v>603.7382302102653</v>
       </c>
       <c r="D16" t="n">
-        <v>1319.671271533351</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E16" t="n">
-        <v>1153.463065686204</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F16" t="n">
-        <v>1153.463065686204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>1153.463065686204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>1153.463065686204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>1053.69449742648</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>1111.185825650638</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>1337.713426856475</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>1692.402748150896</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>2083.588543121147</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>2461.080053997182</v>
+        <v>1509.688269976525</v>
       </c>
       <c r="O16" t="n">
-        <v>2816.508182676946</v>
+        <v>1865.116398656288</v>
       </c>
       <c r="P16" t="n">
-        <v>3107.107394598846</v>
+        <v>2155.715610578189</v>
       </c>
       <c r="Q16" t="n">
-        <v>3234.107524839608</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="R16" t="n">
-        <v>3187.068911526781</v>
+        <v>2235.677127506124</v>
       </c>
       <c r="S16" t="n">
-        <v>3016.933864045916</v>
+        <v>2065.542080025259</v>
       </c>
       <c r="T16" t="n">
-        <v>2773.594516271816</v>
+        <v>1822.202732251159</v>
       </c>
       <c r="U16" t="n">
-        <v>2493.41006777212</v>
+        <v>1542.018283751463</v>
       </c>
       <c r="V16" t="n">
-        <v>2211.698600380149</v>
+        <v>1434.783426907868</v>
       </c>
       <c r="W16" t="n">
-        <v>1936.846196552662</v>
+        <v>1434.783426907868</v>
       </c>
       <c r="X16" t="n">
-        <v>1709.330812716838</v>
+        <v>1192.219530353673</v>
       </c>
       <c r="Y16" t="n">
-        <v>1482.98804440658</v>
+        <v>965.8767620434151</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5543,19 +5545,19 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5589,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>946.5481644506465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>601.2341827829796</v>
+        <v>759.8870954416517</v>
       </c>
       <c r="C19" t="n">
-        <v>429.2616196618956</v>
+        <v>759.8870954416517</v>
       </c>
       <c r="D19" t="n">
-        <v>265.9448467886663</v>
+        <v>759.8870954416517</v>
       </c>
       <c r="E19" t="n">
-        <v>265.9448467886663</v>
+        <v>593.6788895945052</v>
       </c>
       <c r="F19" t="n">
-        <v>265.9448467886663</v>
+        <v>421.8171153690656</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>255.5601456632978</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1503.646164133592</v>
       </c>
       <c r="W19" t="n">
-        <v>1260.306816359498</v>
+        <v>1228.793760306105</v>
       </c>
       <c r="X19" t="n">
-        <v>1017.742919805303</v>
+        <v>986.2298637519096</v>
       </c>
       <c r="Y19" t="n">
-        <v>791.4001514950452</v>
+        <v>759.8870954416517</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,37 +5740,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5838,7 +5840,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
         <v>1021.509065974867</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>543.5554397491844</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C22" t="n">
-        <v>440.421457337036</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D22" t="n">
-        <v>440.421457337036</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E22" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5929,31 +5931,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818949</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506122</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025257</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251157</v>
       </c>
       <c r="U22" t="n">
-        <v>1759.191944545161</v>
+        <v>1672.5839063855</v>
       </c>
       <c r="V22" t="n">
-        <v>1477.48047715319</v>
+        <v>1672.5839063855</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.628073325703</v>
+        <v>1672.5839063855</v>
       </c>
       <c r="X22" t="n">
-        <v>960.064176771508</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.72140846125</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="23">
@@ -6072,16 +6074,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>440.421457337036</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C25" t="n">
-        <v>440.421457337036</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D25" t="n">
-        <v>440.421457337036</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6166,31 +6168,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818948</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506121</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.677127506121</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.337779732021</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1712.153331232325</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1430.441863840354</v>
       </c>
       <c r="W25" t="n">
-        <v>1099.494090913554</v>
+        <v>1155.589460012867</v>
       </c>
       <c r="X25" t="n">
-        <v>856.9301943593596</v>
+        <v>913.0255634586721</v>
       </c>
       <c r="Y25" t="n">
-        <v>630.5874260491016</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,16 +6305,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>1801.283937336665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1801.283937336665</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>843.7708094800807</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>671.7982463589967</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>508.4814734857674</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>342.273267638621</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1647.464196922181</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V28" t="n">
-        <v>1365.75272953021</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W28" t="n">
-        <v>1090.900325702723</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="29">
@@ -6464,19 +6466,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6546,10 +6548,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>440.421457337036</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C31" t="n">
-        <v>440.421457337036</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D31" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2176.752350469914</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1933.413002695814</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1653.228554196118</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1371.517086804147</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1096.66468297666</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,19 +6785,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>991.7839914173002</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
-        <v>1707.981708455798</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3278.556980224822</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C34" t="n">
-        <v>3106.584417103738</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="D34" t="n">
-        <v>3106.584417103738</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="E34" t="n">
-        <v>3106.584417103738</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5017.717281294595</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4774.377933520494</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>4494.193485020799</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>4212.482017628828</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>3937.629613801341</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>3695.065717247146</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>3468.722948936888</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,58 +6925,58 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3950.770911629314</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629314</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787242</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.2223918853055</v>
+        <v>3205.84032174079</v>
       </c>
       <c r="C37" t="n">
-        <v>537.2498287642214</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="D37" t="n">
-        <v>373.9330558909921</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="E37" t="n">
-        <v>373.9330558909921</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655525</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655525</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655525</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U37" t="n">
-        <v>1822.202732251165</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V37" t="n">
-        <v>1540.491264859194</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W37" t="n">
-        <v>1265.638861031707</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X37" t="n">
-        <v>1023.074964477512</v>
+        <v>3622.349058763114</v>
       </c>
       <c r="Y37" t="n">
-        <v>796.7321961672538</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7175,34 +7177,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>533.9931985757474</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.618246195024</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2467.904347614082</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3444.155406100783</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4289.300056251595</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409523</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7242,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7263,13 +7265,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>601.2341827829796</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C40" t="n">
-        <v>429.2616196618956</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D40" t="n">
-        <v>429.2616196618956</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="E40" t="n">
-        <v>345.8675501573981</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573981</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573981</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W40" t="n">
-        <v>1260.306816359498</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X40" t="n">
-        <v>1017.742919805303</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y40" t="n">
-        <v>791.4001514950452</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1373.972764231063</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1373.972764231063</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>950.6801434160632</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>524.7032035639207</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>99.57902175332092</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>99.57902175332092</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679213</v>
+        <v>409.5807935972459</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679213</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L41" t="n">
-        <v>865.1237628945947</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M41" t="n">
-        <v>1665.565375292397</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N41" t="n">
-        <v>2466.0069876902</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839606</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839606</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712747</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3007.269747099608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3007.269747099608</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3007.269747099608</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2610.878397399955</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2199.158398567703</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1793.821128522593</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679213</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M42" t="n">
-        <v>64.68215049679213</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N42" t="n">
-        <v>865.1237628945947</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1157.172064038804</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>563.6136198739432</v>
+        <v>373.4203922683229</v>
       </c>
       <c r="C43" t="n">
-        <v>391.6410567528592</v>
+        <v>201.4478291472389</v>
       </c>
       <c r="D43" t="n">
-        <v>391.6410567528592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E43" t="n">
-        <v>391.6410567528592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F43" t="n">
-        <v>330.707688462284</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>1869.241345563995</v>
       </c>
       <c r="U43" t="n">
-        <v>1504.397720842433</v>
+        <v>1589.0568970643</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.686253450462</v>
+        <v>1307.345429672328</v>
       </c>
       <c r="W43" t="n">
-        <v>1222.686253450462</v>
+        <v>1032.493025844841</v>
       </c>
       <c r="X43" t="n">
-        <v>980.1223568962668</v>
+        <v>789.9291292906465</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.7795885860088</v>
+        <v>563.5863609803886</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2012.530540803314</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1585.629810816614</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1162.337190001614</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>736.3602501494719</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>311.2360683388721</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679213</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679213</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>780.1904584722912</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>1580.632070870094</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N44" t="n">
-        <v>2381.073683267896</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.551189957704</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957704</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839606</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839606</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3234.107524839606</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2837.716175139954</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2837.716175139954</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2432.378905094844</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679213</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M45" t="n">
-        <v>64.68215049679213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
-        <v>64.68215049679213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>865.1237628945947</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1409.224304214523</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>984.5465001477996</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>812.5739370267156</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267156</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795691</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483617</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2027.921517116229</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U46" t="n">
-        <v>1747.737068616533</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V46" t="n">
-        <v>1466.025601224562</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.025601224562</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X46" t="n">
-        <v>1401.055237170123</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1174.712468859865</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487782</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>522.0887335865917</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>40.81737747291813</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529642001</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>108.094208435838</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>506.8734716662968</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675105</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.948580876191</v>
       </c>
       <c r="P3" t="n">
-        <v>89.67495492258647</v>
+        <v>32.58641244423934</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517321</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217031217</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8216,10 +8218,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
-        <v>301.3352940721928</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
@@ -8237,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8304,13 +8306,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8453,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>571.0335849150666</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>380.3086605601452</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P9" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>56.89291658849602</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>498.5385371580963</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659261</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8769,19 +8771,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>234.5497298530359</v>
+        <v>227.4584616419597</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>831.6236617222301</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>745.2028786174529</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425249</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>813.1387512681905</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659261</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>571.9957402170984</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9015,7 +9017,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234437</v>
+        <v>508.5750866678849</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9182,7 +9184,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>997.2808002453501</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
         <v>921.6378271075471</v>
@@ -9720,19 +9722,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>281.4457336203087</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,19 +9953,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>132.1575803849285</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10112,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10194,13 +10196,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10349,10 +10351,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10433,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10446,7 +10448,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.806266097605</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10595,16 +10597,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>882.1738474735944</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>471.8155959159396</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10911,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>657.8632399032651</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>339.8018586688364</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425245</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093334</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443477</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>813.250087789768</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11142,19 +11144,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234432</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>318.1701737062719</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11300,22 +11302,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093334</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443477</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>780.2975317699709</v>
+        <v>143.6953511146608</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11379,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>831.6987709321238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>571.3673475885942</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>64.98845316010571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>144.3965530972587</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>248.0004759894104</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>172.7318444428923</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>14.89802759118652</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.588687959700849</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>89.40433044915943</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>68.15019490184625</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>129.259966407698</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>66.33105441802937</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>106.2105945228305</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>97.1667078014309</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>104.3914540390046</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.33105441802958</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>48.27130666292251</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.6296027858161</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>44.20464122293407</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25555,10 +25557,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>81.9859949792225</v>
+        <v>137.9879671984354</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>97.47053646880593</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>63.52994056050071</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>109.8191218755158</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>156.2072931227867</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,16 +26079,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>12.03862242150592</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>175.8175971747588</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>665985.0406052121</v>
+        <v>660040.9456472162</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>512066.9984371105</v>
+        <v>690610.0703997561</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>512066.9984371105</v>
+        <v>690610.0703997558</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>690610.070399756</v>
+        <v>690610.0703997558</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>690610.070399756</v>
+        <v>690610.0703997558</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>690610.070399756</v>
+        <v>690610.0703997558</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>690610.0703997561</v>
+        <v>690610.070399756</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>690610.070399756</v>
+        <v>690610.0703997561</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>512066.9984371103</v>
+        <v>690610.0703997562</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>512066.9984371102</v>
+        <v>690610.070399756</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080932</v>
+        <v>422270.9343080933</v>
       </c>
       <c r="C2" t="n">
         <v>422270.934308093</v>
       </c>
       <c r="D2" t="n">
-        <v>422270.934308093</v>
+        <v>422270.9343080931</v>
       </c>
       <c r="E2" t="n">
-        <v>302152.8212019906</v>
+        <v>407472.0422746488</v>
       </c>
       <c r="F2" t="n">
-        <v>302152.8212019906</v>
+        <v>407472.042274649</v>
       </c>
       <c r="G2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.0422746489</v>
       </c>
       <c r="H2" t="n">
-        <v>407472.0422746489</v>
+        <v>407472.0422746488</v>
       </c>
       <c r="I2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746487</v>
       </c>
       <c r="J2" t="n">
         <v>407472.042274649</v>
       </c>
       <c r="K2" t="n">
+        <v>407472.0422746489</v>
+      </c>
+      <c r="L2" t="n">
         <v>407472.042274649</v>
       </c>
-      <c r="L2" t="n">
-        <v>407472.0422746489</v>
-      </c>
       <c r="M2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="N2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="O2" t="n">
+        <v>407472.0422746493</v>
+      </c>
+      <c r="P2" t="n">
         <v>407472.042274649</v>
-      </c>
-      <c r="N2" t="n">
-        <v>407472.042274649</v>
-      </c>
-      <c r="O2" t="n">
-        <v>302152.8212019905</v>
-      </c>
-      <c r="P2" t="n">
-        <v>302152.8212019906</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695915</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361195</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534623</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.268580289</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701958</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537382</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>219126.2750134968</v>
+      </c>
+      <c r="C4" t="n">
         <v>208489.0552260627</v>
-      </c>
-      <c r="C4" t="n">
-        <v>208489.0552260628</v>
       </c>
       <c r="D4" t="n">
         <v>208489.0552260627</v>
       </c>
       <c r="E4" t="n">
-        <v>85463.15776761722</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="F4" t="n">
-        <v>85463.15776761723</v>
+        <v>115328.9674438158</v>
       </c>
       <c r="G4" t="n">
-        <v>115328.9674438159</v>
+        <v>115328.9674438158</v>
       </c>
       <c r="H4" t="n">
-        <v>115328.9674438159</v>
+        <v>115328.9674438158</v>
       </c>
       <c r="I4" t="n">
-        <v>115328.9674438159</v>
+        <v>115328.9674438158</v>
       </c>
       <c r="J4" t="n">
         <v>115328.9674438159</v>
@@ -26454,10 +26456,10 @@
         <v>115328.9674438159</v>
       </c>
       <c r="O4" t="n">
-        <v>85463.1577676172</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="P4" t="n">
-        <v>85463.1577676172</v>
+        <v>115328.9674438159</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.2228221613</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40069.10537013493</v>
+        <v>-22021.25959715637</v>
       </c>
       <c r="C6" t="n">
-        <v>146335.6280446021</v>
+        <v>122928.7943709902</v>
       </c>
       <c r="D6" t="n">
-        <v>146335.6280446022</v>
+        <v>146335.6280446023</v>
       </c>
       <c r="E6" t="n">
-        <v>92200.27790334911</v>
+        <v>-1346.343914237223</v>
       </c>
       <c r="F6" t="n">
-        <v>167531.2290568113</v>
+        <v>214393.0126424035</v>
       </c>
       <c r="G6" t="n">
-        <v>85502.61283086306</v>
+        <v>214393.0126424034</v>
       </c>
       <c r="H6" t="n">
+        <v>214393.0126424034</v>
+      </c>
+      <c r="I6" t="n">
         <v>214393.0126424033</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>87815.74406211435</v>
+      </c>
+      <c r="K6" t="n">
+        <v>195746.4122853837</v>
+      </c>
+      <c r="L6" t="n">
         <v>214393.0126424034</v>
       </c>
-      <c r="J6" t="n">
-        <v>68859.3427075869</v>
-      </c>
-      <c r="K6" t="n">
-        <v>214393.0126424033</v>
-      </c>
-      <c r="L6" t="n">
-        <v>214393.0126424033</v>
-      </c>
       <c r="M6" t="n">
-        <v>151519.0756770297</v>
+        <v>34329.14118723589</v>
       </c>
       <c r="N6" t="n">
         <v>214393.0126424035</v>
       </c>
       <c r="O6" t="n">
-        <v>167531.2290568113</v>
+        <v>214393.0126424037</v>
       </c>
       <c r="P6" t="n">
-        <v>167531.2290568114</v>
+        <v>214393.0126424034</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162529</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162529</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162529</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>135.7138368186699</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>287.0507283601224</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>68.4937064088584</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>4.637162573079223</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>371.3345117074835</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27625,13 +27627,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>167.4345103965589</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>7.130752673931966</v>
+        <v>108.9108341743195</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>295.0601520784151</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>266.224206448189</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>121.1191275236703</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>144.7258657765307</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28381,19 +28383,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28518,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-6.302798283286397e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28624,13 +28626,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28779,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-6.574282451765616e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28798,16 +28800,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28816,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28861,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29001,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-7.931703294161709e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29238,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-9.56060830503702e-12</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -30514,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30666,7 +30668,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>3.537754638472107</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>73.06155854104156</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="P3" t="n">
-        <v>67.9041137177578</v>
+        <v>10.81557123941067</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127134</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771760016726</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34936,10 +34938,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L5" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
@@ -34957,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35024,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="O8" t="n">
         <v>533.7539620806206</v>
-      </c>
-      <c r="O8" t="n">
-        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>357.2118800478172</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>27.4729571029095</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>462.773936363287</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>212.1504960197025</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>723.4320374126243</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>775.8591284337444</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099021</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>549.596506383765</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,7 +35737,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099021</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404339</v>
       </c>
       <c r="O16" t="n">
         <v>359.0183117977405</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35902,7 +35904,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>974.1840197330221</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>928.4912652212506</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>898.4659373853249</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391455</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36534,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>110.8145521713869</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>205.0592278086265</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37315,16 +37317,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>844.8942246391483</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>436.0509951211303</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37631,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>634.6913501810429</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>310.3818991832499</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099016</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099016</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>775.859128433744</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099016</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>294.9982839840497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,22 +38022,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099016</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099016</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>742.9065724139468</v>
+        <v>106.3043917586367</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>549.5965063837655</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1150683.434712211</v>
+        <v>1149986.773507121</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.946211477</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -667,16 +667,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>113.2449434263234</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>174.6839226277652</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -876,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>2.105034135720909</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.4421780540762</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.31536894113121</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -904,13 +904,13 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>353.7742984338901</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>169.9835185437319</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>69.61444029309583</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>124.8703343015023</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1150,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>28.66548829251649</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1198,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4.427271746383095</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1347,16 +1347,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>127.3780140126814</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396359</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1536,10 +1536,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>45.22125567436197</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.872939992494</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396359</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1824,16 +1824,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>106.1625082751591</v>
+        <v>274.8493527759923</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,16 +1852,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864462</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>52.95397535776772</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.894352718058</v>
+        <v>231.5892516309168</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2098,10 +2098,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2295,13 +2295,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>148.1226376070007</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2478,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>117.8687461043249</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2724,13 +2724,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>72.97644868175428</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>64.04161454920718</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>220.9007141892422</v>
       </c>
     </row>
     <row r="32">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>116.2748171257525</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>175.5847998765381</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3426,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>53.97404635128394</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>98.15366458399308</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>26.55815659023954</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3714,13 +3714,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>88.26474024820189</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3796,7 +3796,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3903,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>98.15366458399629</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060527</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>197.8920927974109</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3982,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>151.0440288838515</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>265.3439815931928</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>273.1206945954328</v>
+        <v>739.5193319569355</v>
       </c>
       <c r="C2" t="n">
-        <v>250.260368649137</v>
+        <v>716.6590060106397</v>
       </c>
       <c r="D2" t="n">
-        <v>231.0081518745414</v>
+        <v>697.406789236044</v>
       </c>
       <c r="E2" t="n">
-        <v>209.071616062803</v>
+        <v>271.4298493839016</v>
       </c>
       <c r="F2" t="n">
-        <v>187.9878382926073</v>
+        <v>250.3460716137059</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884629</v>
+        <v>250.0474132435586</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884629</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231751</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347467</v>
+        <v>403.5871017449294</v>
       </c>
       <c r="L2" t="n">
-        <v>996.5799837771758</v>
+        <v>403.5871017449294</v>
       </c>
       <c r="M2" t="n">
-        <v>996.5799837771758</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="N2" t="n">
-        <v>1000.082360869263</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="O2" t="n">
-        <v>1000.082360869263</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="P2" t="n">
-        <v>1479.021285111692</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615875</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615875</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615875</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1714.181193660509</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="U2" t="n">
-        <v>1455.826284256921</v>
+        <v>1572.384561085424</v>
       </c>
       <c r="V2" t="n">
-        <v>1098.33686938317</v>
+        <v>1572.384561085424</v>
       </c>
       <c r="W2" t="n">
-        <v>701.9455196835172</v>
+        <v>1572.384561085424</v>
       </c>
       <c r="X2" t="n">
-        <v>290.2255208512644</v>
+        <v>1160.664562253171</v>
       </c>
       <c r="Y2" t="n">
-        <v>288.9286548465588</v>
+        <v>1159.367696248466</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237728</v>
+        <v>693.5426250668166</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412776</v>
+        <v>576.0367215843214</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565626</v>
+        <v>472.1967630996064</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294998</v>
+        <v>367.4948293725436</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>273.8489990554478</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000792</v>
+        <v>179.7952272730518</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231751</v>
+        <v>126.4191340353614</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422935</v>
+        <v>133.8657769972732</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>405.5632662768643</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>884.5021905192924</v>
       </c>
       <c r="L3" t="n">
-        <v>317.8462675338204</v>
+        <v>884.5021905192924</v>
       </c>
       <c r="M3" t="n">
-        <v>796.7851917762496</v>
+        <v>884.5021905192924</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018679</v>
+        <v>884.5021905192924</v>
       </c>
       <c r="O3" t="n">
-        <v>1754.663040261108</v>
+        <v>910.0030534259606</v>
       </c>
       <c r="P3" t="n">
-        <v>1765.370455788124</v>
+        <v>1388.941977668389</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1853.087454531168</v>
       </c>
       <c r="R3" t="n">
-        <v>1847.389765872827</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>1766.065518434082</v>
+        <v>1853.782517177126</v>
       </c>
       <c r="T3" t="n">
-        <v>1624.18558273176</v>
+        <v>1711.902581474804</v>
       </c>
       <c r="U3" t="n">
-        <v>1439.417386651397</v>
+        <v>1527.134385394441</v>
       </c>
       <c r="V3" t="n">
-        <v>1234.444247790663</v>
+        <v>1322.161246533707</v>
       </c>
       <c r="W3" t="n">
-        <v>1037.92287062388</v>
+        <v>1125.639869366924</v>
       </c>
       <c r="X3" t="n">
-        <v>874.4455243905431</v>
+        <v>962.162523133587</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438355</v>
+        <v>822.4696344868794</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>448.4751778910336</v>
+        <v>448.523941749655</v>
       </c>
       <c r="C4" t="n">
-        <v>448.4751778910336</v>
+        <v>448.523941749655</v>
       </c>
       <c r="D4" t="n">
-        <v>448.4751778910336</v>
+        <v>448.523941749655</v>
       </c>
       <c r="E4" t="n">
-        <v>282.2669720438871</v>
+        <v>448.523941749655</v>
       </c>
       <c r="F4" t="n">
-        <v>282.2669720438871</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
         <v>282.2669720438871</v>
@@ -4485,55 +4485,55 @@
         <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663274167</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271625</v>
+        <v>393.4019879271584</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974133</v>
+        <v>784.5877828974092</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773449</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453212</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375113</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615875</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303049</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822184</v>
+        <v>1717.933103822179</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048083</v>
+        <v>1474.593756048079</v>
       </c>
       <c r="U4" t="n">
-        <v>1194.409307548388</v>
+        <v>1194.409307548384</v>
       </c>
       <c r="V4" t="n">
-        <v>912.6978401564165</v>
+        <v>1192.283010441595</v>
       </c>
       <c r="W4" t="n">
-        <v>912.6978401564165</v>
+        <v>917.4306066141079</v>
       </c>
       <c r="X4" t="n">
-        <v>670.1339436022216</v>
+        <v>674.866710059913</v>
       </c>
       <c r="Y4" t="n">
-        <v>448.4751778910336</v>
+        <v>448.523941749655</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>129.9297397222204</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>107.0694137759246</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>87.81719700132894</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
         <v>44.49822504924753</v>
@@ -4570,19 +4570,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="N5" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="O5" t="n">
         <v>1100.603903091853</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1651.269438076291</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
         <v>1651.269438076291</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1745.630772103422</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1388.141357229671</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>991.7500075300184</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>580.0300086977657</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y5" t="n">
-        <v>174.692738652656</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>1145.829295018124</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4725,7 +4725,7 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
         <v>328.5171544792433</v>
@@ -4749,22 +4749,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V7" t="n">
-        <v>1592.697720113037</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="W7" t="n">
-        <v>1317.84531628555</v>
+        <v>1388.162932743223</v>
       </c>
       <c r="X7" t="n">
         <v>1317.84531628555</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.88477840153</v>
+        <v>1042.205662800888</v>
       </c>
       <c r="C8" t="n">
-        <v>136.0244524552342</v>
+        <v>615.3049328141885</v>
       </c>
       <c r="D8" t="n">
-        <v>116.7722356806385</v>
+        <v>192.0123119991888</v>
       </c>
       <c r="E8" t="n">
-        <v>94.83569986890012</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>73.75192209870443</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>73.45326372855712</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4807,22 +4807,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
+        <v>1145.829295018124</v>
+      </c>
+      <c r="O8" t="n">
         <v>1696.494830002562</v>
       </c>
-      <c r="O8" t="n">
-        <v>2224.911252462377</v>
-      </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1388.141357229671</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W8" t="n">
-        <v>991.7500075300184</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X8" t="n">
-        <v>580.0300086977657</v>
+        <v>1463.350893097124</v>
       </c>
       <c r="Y8" t="n">
-        <v>174.692738652656</v>
+        <v>1462.054027092418</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4995,19 +4995,19 @@
         <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1482.686776502612</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1354.022115883742</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1354.022115883742</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.679347573484</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5044,16 +5044,16 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1852.677416841655</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2856.963518260713</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N11" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
         <v>3833.214576747414</v>
@@ -5086,7 +5086,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>305.3113489363686</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N12" t="n">
-        <v>305.3113489363686</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.79262694784</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>603.8002552472883</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C13" t="n">
-        <v>431.8276921262043</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="D13" t="n">
-        <v>268.510919252975</v>
+        <v>319.8425236659772</v>
       </c>
       <c r="E13" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
         <v>102.3027134058285</v>
@@ -5226,25 +5226,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2099.621208542961</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1819.436760043265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1537.725292651294</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W13" t="n">
-        <v>1262.872888823807</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X13" t="n">
-        <v>1020.308992269612</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y13" t="n">
-        <v>793.966223959354</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5284,22 +5284,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3160.951640103982</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5323,7 +5323,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>964.4851292537592</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N15" t="n">
-        <v>1446.844867123559</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>775.7107933313494</v>
+        <v>603.8490191059097</v>
       </c>
       <c r="C16" t="n">
-        <v>603.7382302102653</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="D16" t="n">
-        <v>440.421457337036</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E16" t="n">
-        <v>440.421457337036</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F16" t="n">
         <v>268.5596831115964</v>
@@ -5448,40 +5448,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976525</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656288</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578189</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818951</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.677127506124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025259</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251159</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751463</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1434.783426907868</v>
+        <v>1311.431288199657</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.783426907868</v>
+        <v>1036.57888437217</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.219530353673</v>
+        <v>794.0149878179755</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.8767620434151</v>
+        <v>794.0149878179755</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5524,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5560,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.8870954416517</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C19" t="n">
-        <v>759.8870954416517</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D19" t="n">
-        <v>759.8870954416517</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>593.6788895945052</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>421.8171153690656</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>255.5601456632978</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5679,46 +5679,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302473</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064299</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133592</v>
+        <v>1355.128360063373</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306105</v>
+        <v>1355.128360063373</v>
       </c>
       <c r="X19" t="n">
-        <v>986.2298637519096</v>
+        <v>1112.564463509178</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.8870954416517</v>
+        <v>1112.564463509178</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5755,25 +5755,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>2184.700581617281</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N20" t="n">
-        <v>3160.951640103982</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>4006.096290254794</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1013.511272808982</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5931,31 +5931,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818949</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506122</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025257</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251157</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1672.5839063855</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.5839063855</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1672.5839063855</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1430.020009831305</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1203.677241521047</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6068,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>140.1622235167214</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>603.8002552472883</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>431.8276921262043</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D25" t="n">
-        <v>268.510919252975</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>201.5586180428797</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6168,31 +6168,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818948</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.677127506121</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.677127506121</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.337779732021</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232325</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840354</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1155.589460012867</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>913.0255634586721</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.966223959354</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6317,16 +6317,16 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>843.7708094800807</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C28" t="n">
-        <v>671.7982463589967</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D28" t="n">
-        <v>508.4814734857674</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E28" t="n">
-        <v>342.273267638621</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U28" t="n">
-        <v>1869.241345563992</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V28" t="n">
-        <v>1587.529878172021</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W28" t="n">
-        <v>1312.677474344533</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X28" t="n">
-        <v>1070.113577790339</v>
+        <v>1164.105260761457</v>
       </c>
       <c r="Y28" t="n">
-        <v>843.7708094800807</v>
+        <v>937.7624924511995</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.5920494001418</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="C31" t="n">
-        <v>265.6194862790578</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2176.752350469914</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1933.413002695814</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1653.228554196118</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1371.517086804147</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1096.66468297666</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X31" t="n">
-        <v>854.1007864224655</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y31" t="n">
-        <v>627.7580181122075</v>
+        <v>841.6494985835419</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>563.5863609803849</v>
+        <v>855.9100933510683</v>
       </c>
       <c r="C34" t="n">
-        <v>391.6137978593009</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="D34" t="n">
-        <v>391.6137978593009</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6888,22 +6888,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1935.222309624417</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1655.037861124721</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1373.32639373275</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1098.473989905263</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>855.9100933510683</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>855.9100933510683</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,37 +6925,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -6973,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3205.84032174079</v>
+        <v>896.1687373222126</v>
       </c>
       <c r="C37" t="n">
-        <v>3033.867758619706</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D37" t="n">
-        <v>3033.867758619706</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E37" t="n">
-        <v>3033.867758619706</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F37" t="n">
-        <v>3033.867758619706</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>3033.867758619706</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S37" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T37" t="n">
-        <v>4701.661275036462</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="U37" t="n">
-        <v>4421.476826536767</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="V37" t="n">
-        <v>4139.765359144795</v>
+        <v>1587.529878172023</v>
       </c>
       <c r="W37" t="n">
-        <v>3864.912955317308</v>
+        <v>1312.677474344536</v>
       </c>
       <c r="X37" t="n">
-        <v>3622.349058763114</v>
+        <v>1312.677474344536</v>
       </c>
       <c r="Y37" t="n">
-        <v>3396.006290452855</v>
+        <v>1086.334706034278</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P38" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.7597400424195</v>
+        <v>756.1415250913442</v>
       </c>
       <c r="C40" t="n">
-        <v>444.7871769213355</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7871769213355</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E40" t="n">
         <v>417.9607561231137</v>
@@ -7362,22 +7362,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1550.684777446425</v>
+        <v>1499.900593783284</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.832373618938</v>
+        <v>1225.048189955797</v>
       </c>
       <c r="X40" t="n">
-        <v>1033.268477064743</v>
+        <v>982.4842934016021</v>
       </c>
       <c r="Y40" t="n">
-        <v>806.9257087544852</v>
+        <v>756.1415250913442</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
         <v>435.0679631883225</v>
@@ -7411,28 +7411,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>409.5807935972459</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2129.375202991803</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N41" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7447,16 +7447,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>373.4203922683229</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C43" t="n">
-        <v>201.4478291472389</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D43" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E43" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F43" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.580693338095</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1869.241345563995</v>
+        <v>1865.651077199597</v>
       </c>
       <c r="U43" t="n">
-        <v>1589.0568970643</v>
+        <v>1585.466628699902</v>
       </c>
       <c r="V43" t="n">
-        <v>1307.345429672328</v>
+        <v>1303.755161307931</v>
       </c>
       <c r="W43" t="n">
-        <v>1032.493025844841</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="X43" t="n">
-        <v>789.9291292906465</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.5863609803886</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,31 +7636,31 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
         <v>3833.214576747414</v>
@@ -7684,16 +7684,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>855.0038060102931</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1185.483835930065</v>
+        <v>1171.796592369602</v>
       </c>
       <c r="C46" t="n">
-        <v>1013.511272808982</v>
+        <v>999.8240292485182</v>
       </c>
       <c r="D46" t="n">
-        <v>850.1944999357522</v>
+        <v>836.5072563752889</v>
       </c>
       <c r="E46" t="n">
-        <v>683.9862940886057</v>
+        <v>670.2990505281424</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>498.4372763027028</v>
       </c>
       <c r="G46" t="n">
         <v>345.8675501573982</v>
@@ -7839,19 +7839,19 @@
         <v>2112.580693338092</v>
       </c>
       <c r="U46" t="n">
-        <v>1844.556469506584</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V46" t="n">
-        <v>1844.556469506584</v>
+        <v>1830.869225946121</v>
       </c>
       <c r="W46" t="n">
-        <v>1844.556469506584</v>
+        <v>1830.869225946121</v>
       </c>
       <c r="X46" t="n">
-        <v>1601.992572952389</v>
+        <v>1588.305329391926</v>
       </c>
       <c r="Y46" t="n">
-        <v>1375.649804642131</v>
+        <v>1361.962561081668</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487782</v>
+        <v>38.06915396219972</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865917</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533996</v>
       </c>
       <c r="N2" t="n">
-        <v>40.81737747291813</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529642001</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873011</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662968</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675105</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.948580876191</v>
+        <v>48.93033710269516</v>
       </c>
       <c r="P3" t="n">
-        <v>32.58641244423934</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8139,10 +8139,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217031217</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>151.3856805310585</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8218,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>180.0440798263965</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8294,31 +8294,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>467.7777678727251</v>
       </c>
       <c r="P6" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8455,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8543,13 +8543,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>185.9918631203545</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8692,19 +8692,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>498.5385371580963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8765,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>227.4584616419597</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>165.36096702492</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>745.2028786174529</v>
@@ -8792,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8941,16 +8941,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>716.4444307130257</v>
+        <v>611.6066190166155</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
@@ -9014,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>73.174855016566</v>
       </c>
       <c r="N15" t="n">
-        <v>508.5750866678849</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,25 +9245,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>784.8458565397888</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9403,13 +9403,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>779.697912545697</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>578.380983679471</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,19 +9491,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9716,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>58.8530437382756</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9965,7 +9965,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>698.7993741930985</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9977,7 +9977,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,16 +10360,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10442,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,16 +10834,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>625.4779643536372</v>
       </c>
       <c r="Q38" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>339.8018586688364</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.324868114313</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>172.7318444428923</v>
+        <v>4.044999942059064</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>89.40433044915943</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>47.30510108713455</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>129.259966407698</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>66.33105441802952</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.2105945228305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>97.1667078014309</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>176.0966430394457</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3.178626437913152</v>
       </c>
     </row>
     <row r="32">
@@ -25083,7 +25083,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>48.27130666292251</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>65.32115441982094</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>116.2787911385892</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>44.20464122293407</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>137.9879671984354</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>190.6296124698495</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>63.52994056050071</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>43.01386149894813</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>13.55037112485866</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>12.03862242150592</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>690610.0703997558</v>
+        <v>690610.070399756</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>690610.0703997558</v>
+        <v>690610.070399756</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>690610.0703997558</v>
+        <v>690610.070399756</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>690610.0703997558</v>
+        <v>690610.070399756</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>690610.070399756</v>
+        <v>690610.0703997561</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>690610.070399756</v>
+        <v>690610.0703997558</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>690610.070399756</v>
+        <v>690610.0703997562</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>690610.0703997562</v>
+        <v>690610.070399756</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080933</v>
+        <v>422270.9343080931</v>
       </c>
       <c r="C2" t="n">
+        <v>422270.9343080932</v>
+      </c>
+      <c r="D2" t="n">
         <v>422270.934308093</v>
       </c>
-      <c r="D2" t="n">
-        <v>422270.9343080931</v>
-      </c>
       <c r="E2" t="n">
-        <v>407472.0422746488</v>
+        <v>407472.0422746492</v>
       </c>
       <c r="F2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="G2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="H2" t="n">
+        <v>407472.0422746493</v>
+      </c>
+      <c r="I2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="J2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="K2" t="n">
         <v>407472.042274649</v>
       </c>
-      <c r="G2" t="n">
-        <v>407472.0422746489</v>
-      </c>
-      <c r="H2" t="n">
-        <v>407472.0422746488</v>
-      </c>
-      <c r="I2" t="n">
-        <v>407472.0422746487</v>
-      </c>
-      <c r="J2" t="n">
-        <v>407472.042274649</v>
-      </c>
-      <c r="K2" t="n">
-        <v>407472.0422746489</v>
-      </c>
       <c r="L2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="M2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.0422746492</v>
       </c>
       <c r="N2" t="n">
         <v>407472.0422746491</v>
       </c>
       <c r="O2" t="n">
-        <v>407472.0422746493</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="P2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695915</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361195</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566405</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.268580289</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701958</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219126.2750134968</v>
+        <v>219126.275013497</v>
       </c>
       <c r="C4" t="n">
         <v>208489.0552260627</v>
@@ -26429,16 +26429,16 @@
         <v>115328.9674438159</v>
       </c>
       <c r="F4" t="n">
-        <v>115328.9674438158</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="G4" t="n">
-        <v>115328.9674438158</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="H4" t="n">
-        <v>115328.9674438158</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="I4" t="n">
-        <v>115328.9674438158</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="J4" t="n">
         <v>115328.9674438159</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.2228221613</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22021.25959715637</v>
+        <v>-22021.25959715628</v>
       </c>
       <c r="C6" t="n">
-        <v>122928.7943709902</v>
+        <v>122928.79437099</v>
       </c>
       <c r="D6" t="n">
-        <v>146335.6280446023</v>
+        <v>146335.6280446022</v>
       </c>
       <c r="E6" t="n">
-        <v>-1346.343914237223</v>
+        <v>-1397.374576421279</v>
       </c>
       <c r="F6" t="n">
-        <v>214393.0126424035</v>
+        <v>214341.9819802192</v>
       </c>
       <c r="G6" t="n">
-        <v>214393.0126424034</v>
+        <v>214341.9819802193</v>
       </c>
       <c r="H6" t="n">
-        <v>214393.0126424034</v>
+        <v>214341.9819802194</v>
       </c>
       <c r="I6" t="n">
-        <v>214393.0126424033</v>
+        <v>214341.9819802193</v>
       </c>
       <c r="J6" t="n">
-        <v>87815.74406211435</v>
+        <v>87764.71339993041</v>
       </c>
       <c r="K6" t="n">
-        <v>195746.4122853837</v>
+        <v>195695.3816231992</v>
       </c>
       <c r="L6" t="n">
-        <v>214393.0126424034</v>
+        <v>214341.9819802193</v>
       </c>
       <c r="M6" t="n">
-        <v>34329.14118723589</v>
+        <v>34278.11052505164</v>
       </c>
       <c r="N6" t="n">
-        <v>214393.0126424035</v>
+        <v>214341.9819802191</v>
       </c>
       <c r="O6" t="n">
-        <v>214393.0126424037</v>
+        <v>214341.9819802193</v>
       </c>
       <c r="P6" t="n">
-        <v>214393.0126424034</v>
+        <v>214341.9819802193</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539688</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539688</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162529</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539688</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162529</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539688</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162529</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>287.0507283601224</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>120.2057721129403</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>276.7893185823305</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.637162573079223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.3345117074835</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27624,13 +27624,13 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>53.82850041004008</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9108341743195</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>170.5238172955571</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>296.8468361521187</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>266.224206448189</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27906,10 +27906,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>183.8370372785619</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28067,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>144.7258657765307</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28383,19 +28383,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-6.302798283286397e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28626,13 +28626,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28751,7 +28751,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28781,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-6.574282451765616e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28800,16 +28800,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28818,10 +28818,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-7.931703294161709e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29240,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-9.56060830503702e-12</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-4.484950034982556e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30668,7 +30668,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539688</v>
+        <v>2.304553167390384</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539688</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N2" t="n">
-        <v>3.537754638472107</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539688</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539688</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539688</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539688</v>
+        <v>25.75844738047293</v>
       </c>
       <c r="P3" t="n">
-        <v>10.81557123941067</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771760016726</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>129.4669206353573</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34938,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>144.2794790315872</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="P6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>533.7539620806206</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O9" t="n">
-        <v>162.8199733981322</v>
-      </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35412,19 +35412,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>462.773936363287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>205.0592278086264</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.264186512592</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>723.4320374126243</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35661,16 +35661,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>679.0534713570016</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="N15" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>381.3045564404339</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
         <v>359.0183117977405</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711539</v>
       </c>
       <c r="M19" t="n">
         <v>395.137166636617</v>
@@ -36123,13 +36123,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>742.2666496462653</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>540.8056218692396</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391455</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>38.24192940494226</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2829598391439</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>677.4563459795569</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,16 +37080,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,7 +37472,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>395.13716663662</v>
       </c>
       <c r="N37" t="n">
         <v>381.3045564404402</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,16 +37554,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="Q38" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>310.3818991832499</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
